--- a/StudentuVertinimas.xlsx
+++ b/StudentuVertinimas.xlsx
@@ -20,6 +20,7 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">data!$B$1:$O$412</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">data!$B$1:$O$412</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">data!$B$1:$O$412</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">data!$B$1:$O$412</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <pivotCaches>
@@ -40,7 +41,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="D19" authorId="0">
+    <comment ref="E19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5271" uniqueCount="1083">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5273" uniqueCount="1085">
   <si>
     <t>Darbo autorius</t>
   </si>
@@ -3220,6 +3221,9 @@
     <t>git_account</t>
   </si>
   <si>
+    <t>Pagrindinis vertinimas</t>
+  </si>
+  <si>
     <t>PapildomiTaskai</t>
   </si>
   <si>
@@ -3227,6 +3231,9 @@
   </si>
   <si>
     <t>Nuobaudos už vertinimą</t>
+  </si>
+  <si>
+    <t>Bendri papildomi taskai</t>
   </si>
   <si>
     <t>Bendras</t>
@@ -3710,7 +3717,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3967,8 +3974,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -20803,12 +20814,13 @@
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+      <selection pane="topLeft" activeCell="G7" activeCellId="2" sqref="A26:A27 A29 G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22103,27 +22115,23 @@
   <dimension ref="B1:M71"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+      <selection pane="topLeft" activeCell="B19" activeCellId="2" sqref="A26:A27 A29 B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="13" min="11" style="0" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="4.86224489795918"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="13" min="11" style="0" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="4.72448979591837"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="10.8010204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23618,14 +23626,14 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D424" activeCellId="0" sqref="D424"/>
+      <selection pane="bottomLeft" activeCell="D424" activeCellId="2" sqref="A26:A27 A29 D424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="15" min="2" style="0" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="15" min="2" style="0" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="13.3622448979592"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37530,13 +37538,13 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A242" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="2" sqref="A26:A27 A29 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="14" min="1" style="0" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="14" min="1" style="0" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="13.3622448979592"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50075,20 +50083,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:G29"/>
+  <dimension ref="A2:I29"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+      <selection pane="topLeft" activeCell="A29" activeCellId="1" sqref="A26:A27 A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.6122448979592"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.6683673469388"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.8163265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.9795918367347"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.280612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.3673469387755"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.8877551020408"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.1938775510204"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50097,7 +50107,7 @@
       </c>
       <c r="B2" s="62"/>
     </row>
-    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="65" customFormat="true" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="63" t="s">
         <v>1045</v>
       </c>
@@ -50119,347 +50129,459 @@
       <c r="G4" s="64" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="65" t="s">
+      <c r="H4" s="64" t="s">
         <v>1052</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="I4" s="64" t="s">
         <v>1053</v>
       </c>
-      <c r="C5" s="65" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="66" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B5" s="66" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C5" s="66" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="66" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" s="67" t="n">
         <v>0.2</v>
       </c>
-      <c r="E5" s="66" t="n">
+      <c r="F5" s="67" t="n">
         <v>-0.5</v>
       </c>
-      <c r="F5" s="66" t="n">
+      <c r="G5" s="67" t="n">
         <v>-0.2</v>
       </c>
-      <c r="G5" s="66" t="n">
-        <f aca="false">SUM(D5:F5)</f>
+      <c r="H5" s="67" t="n">
+        <f aca="false">SUM(E5:G5)</f>
         <v>-0.5</v>
       </c>
+      <c r="I5" s="67" t="n">
+        <f aca="false">H5+D5</f>
+        <v>1.5</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="65" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B6" s="65" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C6" s="65" t="s">
+      <c r="A6" s="66" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B6" s="66" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C6" s="66" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="66" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" s="67" t="n">
         <v>0.2</v>
       </c>
-      <c r="E6" s="66" t="n">
+      <c r="F6" s="67" t="n">
         <v>-0.5</v>
       </c>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66" t="n">
-        <f aca="false">SUM(D6:F6)</f>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67" t="n">
+        <f aca="false">SUM(E6:G6)</f>
         <v>-0.3</v>
       </c>
+      <c r="I6" s="67" t="n">
+        <f aca="false">H6+D6</f>
+        <v>1.7</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="65" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B7" s="65" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C7" s="65" t="s">
+      <c r="A7" s="66" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B7" s="66" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C7" s="66" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="66" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" s="67" t="n">
         <v>0.2</v>
       </c>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66" t="n">
-        <f aca="false">SUM(D7:F7)</f>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67" t="n">
+        <f aca="false">SUM(E7:G7)</f>
         <v>0.2</v>
       </c>
+      <c r="I7" s="67" t="n">
+        <f aca="false">H7+D7</f>
+        <v>2.2</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="65" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B8" s="65" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C8" s="65" t="s">
+      <c r="A8" s="66" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B8" s="66" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C8" s="66" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="66" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" s="67" t="n">
         <v>0.2</v>
       </c>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66" t="n">
-        <f aca="false">SUM(D8:F8)</f>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67" t="n">
+        <f aca="false">SUM(E8:G8)</f>
         <v>0.2</v>
       </c>
+      <c r="I8" s="67" t="n">
+        <f aca="false">H8+D8</f>
+        <v>2.2</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="65" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B9" s="65" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C9" s="67" t="s">
+      <c r="A9" s="66" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B9" s="66" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C9" s="68" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="66" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" s="67" t="n">
         <v>0.2</v>
       </c>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66" t="n">
-        <f aca="false">SUM(D9:F9)</f>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67" t="n">
+        <f aca="false">SUM(E9:G9)</f>
         <v>0.2</v>
       </c>
+      <c r="I9" s="67" t="n">
+        <f aca="false">H9+D9</f>
+        <v>2.2</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="65" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B10" s="65" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C10" s="65" t="s">
+      <c r="A10" s="66" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B10" s="66" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C10" s="66" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="66" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" s="67" t="n">
         <v>0.7</v>
       </c>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66" t="n">
-        <f aca="false">SUM(D10:F10)</f>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67" t="n">
+        <f aca="false">SUM(E10:G10)</f>
         <v>0.7</v>
       </c>
+      <c r="I10" s="67" t="n">
+        <f aca="false">H10+D10</f>
+        <v>2.7</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="65" t="s">
-        <v>1064</v>
-      </c>
-      <c r="B11" s="65" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C11" s="65" t="s">
+      <c r="A11" s="66" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B11" s="66" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C11" s="66" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="66" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" s="67" t="n">
         <v>0.2</v>
       </c>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66" t="n">
-        <f aca="false">SUM(D11:F11)</f>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67" t="n">
+        <f aca="false">SUM(E11:G11)</f>
         <v>0.2</v>
       </c>
+      <c r="I11" s="67" t="n">
+        <f aca="false">H11+D11</f>
+        <v>2.2</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="65" t="s">
-        <v>1066</v>
-      </c>
-      <c r="B12" s="65" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C12" s="65" t="s">
+      <c r="A12" s="66" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B12" s="66" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C12" s="66" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="66" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" s="67" t="n">
         <v>0.8</v>
       </c>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66" t="n">
-        <f aca="false">SUM(D12:F12)</f>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67" t="n">
+        <f aca="false">SUM(E12:G12)</f>
         <v>0.8</v>
       </c>
+      <c r="I12" s="67" t="n">
+        <f aca="false">H12+D12</f>
+        <v>2.8</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="65" t="s">
-        <v>1068</v>
-      </c>
-      <c r="B13" s="65" t="s">
+      <c r="A13" s="66" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B13" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="66" t="s">
         <v>26</v>
       </c>
       <c r="D13" s="66" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" s="67" t="n">
         <v>0.2</v>
       </c>
-      <c r="E13" s="66" t="n">
+      <c r="F13" s="67" t="n">
         <v>-0.5</v>
       </c>
-      <c r="F13" s="66" t="n">
+      <c r="G13" s="67" t="n">
         <v>-0.2</v>
       </c>
-      <c r="G13" s="66" t="n">
-        <f aca="false">SUM(D13:F13)</f>
+      <c r="H13" s="67" t="n">
+        <f aca="false">SUM(E13:G13)</f>
         <v>-0.5</v>
       </c>
+      <c r="I13" s="67" t="n">
+        <f aca="false">H13+D13</f>
+        <v>1.5</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="65" t="s">
-        <v>1069</v>
-      </c>
-      <c r="B14" s="65" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C14" s="65" t="s">
+      <c r="A14" s="66" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B14" s="66" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C14" s="66" t="s">
         <v>27</v>
       </c>
       <c r="D14" s="66" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" s="67" t="n">
         <v>0.7</v>
       </c>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66" t="n">
+      <c r="F14" s="67"/>
+      <c r="G14" s="67" t="n">
         <v>-0.2</v>
       </c>
-      <c r="G14" s="66" t="n">
-        <f aca="false">SUM(D14:F14)</f>
+      <c r="H14" s="67" t="n">
+        <f aca="false">SUM(E14:G14)</f>
         <v>0.5</v>
       </c>
+      <c r="I14" s="67" t="n">
+        <f aca="false">H14+D14</f>
+        <v>2.5</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="65" t="s">
-        <v>1071</v>
-      </c>
-      <c r="B15" s="65" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C15" s="65" t="s">
+      <c r="A15" s="66" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B15" s="66" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C15" s="66" t="s">
         <v>28</v>
       </c>
       <c r="D15" s="66" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" s="67" t="n">
         <v>0.7</v>
       </c>
-      <c r="E15" s="66" t="n">
+      <c r="F15" s="67" t="n">
         <v>-0.2</v>
       </c>
-      <c r="F15" s="66" t="n">
+      <c r="G15" s="67" t="n">
         <v>-0.4</v>
       </c>
-      <c r="G15" s="66" t="n">
-        <f aca="false">SUM(D15:F15)</f>
+      <c r="H15" s="67" t="n">
+        <f aca="false">SUM(E15:G15)</f>
         <v>0.1</v>
       </c>
+      <c r="I15" s="67" t="n">
+        <f aca="false">H15+D15</f>
+        <v>2.1</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="65" t="s">
-        <v>1073</v>
-      </c>
-      <c r="B16" s="65" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C16" s="65" t="s">
+      <c r="A16" s="66" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B16" s="66" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C16" s="66" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="66" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" s="67" t="n">
         <v>0.7</v>
       </c>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66" t="n">
+      <c r="F16" s="67"/>
+      <c r="G16" s="67" t="n">
         <v>-0.2</v>
       </c>
-      <c r="G16" s="66" t="n">
-        <f aca="false">SUM(D16:F16)</f>
+      <c r="H16" s="67" t="n">
+        <f aca="false">SUM(E16:G16)</f>
         <v>0.5</v>
       </c>
+      <c r="I16" s="67" t="n">
+        <f aca="false">H16+D16</f>
+        <v>2.5</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="65" t="s">
-        <v>1075</v>
-      </c>
-      <c r="B17" s="65" t="s">
-        <v>1076</v>
-      </c>
-      <c r="C17" s="65" t="s">
+      <c r="A17" s="66" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B17" s="66" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C17" s="66" t="s">
         <v>30</v>
       </c>
       <c r="D17" s="66" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" s="67" t="n">
         <v>0.2</v>
       </c>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66" t="n">
-        <f aca="false">SUM(D17:F17)</f>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67" t="n">
+        <f aca="false">SUM(E17:G17)</f>
         <v>0.2</v>
       </c>
+      <c r="I17" s="67" t="n">
+        <f aca="false">H17+D17</f>
+        <v>2.2</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="65" t="s">
-        <v>1077</v>
-      </c>
-      <c r="B18" s="65" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C18" s="65" t="s">
+      <c r="A18" s="66" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B18" s="66" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C18" s="66" t="s">
         <v>31</v>
       </c>
       <c r="D18" s="66" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" s="67" t="n">
         <v>1.3</v>
       </c>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66" t="n">
+      <c r="F18" s="67"/>
+      <c r="G18" s="67" t="n">
         <v>-0.2</v>
       </c>
-      <c r="G18" s="66" t="n">
-        <f aca="false">SUM(D18:F18)</f>
+      <c r="H18" s="67" t="n">
+        <f aca="false">SUM(E18:G18)</f>
         <v>1.1</v>
       </c>
+      <c r="I18" s="67" t="n">
+        <f aca="false">H18+D18</f>
+        <v>3.1</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="65" t="s">
-        <v>1079</v>
-      </c>
-      <c r="B19" s="65" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C19" s="65" t="s">
+      <c r="A19" s="66" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B19" s="66" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C19" s="66" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="66" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" s="67" t="n">
         <v>0.9</v>
       </c>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66" t="n">
-        <f aca="false">SUM(D19:F19)</f>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67" t="n">
+        <f aca="false">SUM(E19:G19)</f>
         <v>0.9</v>
       </c>
+      <c r="I19" s="67" t="n">
+        <f aca="false">H19+D19</f>
+        <v>2.9</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="65"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="68" t="s">
-        <v>1081</v>
+      <c r="A23" s="69" t="s">
+        <v>1083</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="69" t="s">
+      <c r="A24" s="70" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="70" t="s">
+      <c r="A25" s="71" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="0" t="s">
@@ -50467,7 +50589,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="69" t="s">
+      <c r="A26" s="70" t="s">
         <v>31</v>
       </c>
       <c r="B26" s="0" t="s">
@@ -50475,7 +50597,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="69" t="s">
+      <c r="A27" s="70" t="s">
         <v>24</v>
       </c>
       <c r="B27" s="0" t="s">
@@ -50518,13 +50640,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="2" sqref="A26:A27 A29 B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
